--- a/public/result-main.xlsx
+++ b/public/result-main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Root\Desktop\SEAL-project\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B921E6-0C0C-498B-AEA5-B0F5291F92B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67860404-4034-4F23-ADC7-48B7F0801DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="1860" windowWidth="16200" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="346">
   <si>
     <t>type</t>
   </si>
@@ -61,9 +61,6 @@
     <t>strength</t>
   </si>
   <si>
-    <t>분석형은 체계적이고 논리적인 접근 방식을 통해 팀의 문제를 해결합니다. 복잡한 문제를 세부적으로 분석하고, 데이터 기반의 의사 결정을 통해 효율적인 해결책을 제시합니다. 이들은 문제의 근본 원인을 규명하고, 최적의 해결책을 찾는 데 뛰어난 능력을 발휘합니다. 이러한 접근 방식은 팀이 직면한 문제를 신속하게 해결하고, 조직의 목표 달성에 중요한 기여를 합니다.</t>
-  </si>
-  <si>
     <t>분석형은 데이터를 수집하고 분석하여 유용한 인사이트를 도출합니다. 이들은 객관적인 데이터를 바탕으로 한 결정을 선호하며, 이를 통해 팀의 성과를 향상시키는 데 중요한 역할을 합니다. 정보에 기반하여, 직면한 상황을 정확하게 파악하고, 최적의 전략을 수립하여 실행합니다. 이러한 데이터 중심의 접근 방식은 팀의 신뢰성과 정확성을 높이는 데 도움이 됩니다.</t>
   </si>
   <si>
@@ -76,24 +73,6 @@
     <t>strength_example</t>
   </si>
   <si>
-    <t>“이 사안의 핵심을 파악해 봐야 할 것 같아요“</t>
-  </si>
-  <si>
-    <t>문제의 핵심을 파악하고 이해하는데 중점을 둡니다</t>
-  </si>
-  <si>
-    <t>“필요한 자료와 정보를 먼저 취합해주세요”</t>
-  </si>
-  <si>
-    <t>충분한 자료와 정보를 수집하여, 데이터 기반의 의사결정을 중요시 합니다.</t>
-  </si>
-  <si>
-    <t>“먼저 추진 계획을 세운 후에 논의하시지요”</t>
-  </si>
-  <si>
-    <t>분석형에게는 체계적인 계획과 명확한 목표 설정이 필요합니다</t>
-  </si>
-  <si>
     <t>weakness_intro</t>
   </si>
   <si>
@@ -121,24 +100,12 @@
     <t>weakness_example</t>
   </si>
   <si>
-    <t>“더 많은 데이터 (정보)가 필요해요”</t>
-  </si>
-  <si>
-    <t>충분한 데이터가 없을 경우 결정을 미루거나 주저하게 됩니다.</t>
-  </si>
-  <si>
     <t>“이 부분을 다시 한번 검토해볼게요”</t>
   </si>
   <si>
-    <t>세부 사항에 지나치게 집중하는 경향이 있어 효율성이 떨어집니다.</t>
-  </si>
-  <si>
     <t>“계획대로 하지 않으면, 혼란이 생길 것 같아요”</t>
   </si>
   <si>
-    <t>계획과 절차를 중시하는 성향 때문에 예상치 못한 변화나 예외 상황에 적응하기 어려워합니다.</t>
-  </si>
-  <si>
     <t>work_style</t>
   </si>
   <si>
@@ -160,21 +127,12 @@
     <t>change_res</t>
   </si>
   <si>
-    <t>신중한 분석과 정보 수집</t>
-  </si>
-  <si>
     <t>분석형은 변화를 받아들이기 전에 철저한 분석과 정보를 수집합니다. 변화의 원인, 목적, 예상되는 결과 등을 명확히 파악한 후, 행동에 나섭니다. 이를 통해 변화가 조직에 미칠 영향을 철저히 이해하고, 적절한 대응 방안을 마련합니다.</t>
   </si>
   <si>
-    <t>구체적인 계획 수립</t>
-  </si>
-  <si>
     <t>분석형은 변화를 추진할 때 매우 현실적인 접근 방식을 취합니다. 불필요한 자원 낭비를 최소화하고, 주어진 자원 내에서 최대한의 효율성을 발휘합니다. 복잡한 프로젝트를 간단한 방법으로 해결하고, 최소한의 자원으로 최대한의 성과를 내는 데 중점을 둡니다.</t>
   </si>
   <si>
-    <t>솔직한 소통과 피드백</t>
-  </si>
-  <si>
     <t>분석형은 변화 과정에서 솔직하고 진정성 있는 소통을 중요시합니다. 필요할 때는 다른 사람들이 듣고 싶어 하지 않는 진실도 거리낌 없이 이야기하며, 수정이 필요한 부분을 정확히 지적합니다. 이를 통해 변화 과정에서 발생할 수 있는 문제를 신속하게 해결하고, 변화를 성공적으로 이끌어갑니다.</t>
   </si>
   <si>
@@ -211,9 +169,6 @@
     <t>혼자 일할 수 있는 시간과 공간 제공, 자율적인 업무 환경 조성</t>
   </si>
   <si>
-    <t>"제가 주도적으로 계획하고 실행할 수 있을 때 가장 만족합니다"</t>
-  </si>
-  <si>
     <t>안정적이고 질서 있는 환경</t>
   </si>
   <si>
@@ -221,9 +176,6 @@
   </si>
   <si>
     <t>체계적이고 질서 있는 업무 환경 제공, 명확한 절차와 일관된 방식 유지</t>
-  </si>
-  <si>
-    <t>"안정된 환경에서 일을 할 때 가장 집중이 잘 돼요”</t>
   </si>
   <si>
     <t>cowork</t>
@@ -302,20 +254,6 @@
  사람에 대한 높은 이해와 배려심으로 팀의 중재자 역할을 하며, 감정적 지지와 공감을 제공함으로써 동료들의 동기를 높이고 업무 만족도를 향상시킵니다. 관계형의 이러한 능력은 팀 프로젝트나 협업이 중요한 업무에서 특히 빛을 발합니다</t>
   </si>
   <si>
-    <t>“이 부분에서 어떤 지원이 필요한지 
- 알려주세요”</t>
-  </si>
-  <si>
-    <t>상대의 이해하고, 필요사항을 파악함으로써 팀의 협력적 분위기를 도모합니다.</t>
-  </si>
-  <si>
-    <t>“모두의 의견을 듣고 싶어요 
- 어떻게 생각하세요?”</t>
-  </si>
-  <si>
-    <t>관계형에게는 모두의 의견이 민주적으로 표현되는 환경을 선호합니다.</t>
-  </si>
-  <si>
     <t>관계형은 감정적 지지와 공감을 중시하는 경향 때문에 다음과 같은 약점을 가질 수 있습니다.</t>
   </si>
   <si>
@@ -335,12 +273,6 @@
     <t>사회적 활동에 너무 많은 에너지를 투자하면서 본질적인 업무에는 집중하기 어려워, 중요한 업무나 프로젝트에서 시간과 에너지를 분산시키는 결과를 초래할 수 있습니다.</t>
   </si>
   <si>
-    <t>“각자의 의견을 최대한 반영해 볼게요”</t>
-  </si>
-  <si>
-    <t>“모두가 참여 할 수 있도록 해요”</t>
-  </si>
-  <si>
     <t>다른 사람들의 인정과 소속감을 중시해, 관계적인 활동에 더 큰 에너지를 쏟을 수 있습니다.</t>
   </si>
   <si>
@@ -392,18 +324,12 @@
     <t>자유롭고 열린 소통 장려, 팀의 협력을 촉진하는 환경 조성</t>
   </si>
   <si>
-    <t>“모두의 의견을 듣고 협력할 때 가장 큰 만족을 느낍니다”</t>
-  </si>
-  <si>
     <t>관계형은 개인적 관심과 배려를 통해 동기부여를 받습니다. 이들은 팀원들의 개인적 필요와 관심사를 이해하고 존중하는 것을 중요시합니다.</t>
   </si>
   <si>
     <t>필요와 관심사에 맞춘 개별적 접근, 성장 지원과 자원 제공</t>
   </si>
   <si>
-    <t>"각자의 필요를 이해하고 배려할 때 가장 큰 성취감을 느낍니다”</t>
-  </si>
-  <si>
     <t>긍정적이고 협력적인 환경</t>
   </si>
   <si>
@@ -413,9 +339,6 @@
     <t>지속적인 긍정적 피드백, 상호 존중과 협력을 바탕으로 한 문화 형성</t>
   </si>
   <si>
-    <t>“긍정적인 피드백과 협력이 있을 때 최고의 성과를 냅니다.”</t>
-  </si>
-  <si>
     <t>명확한 커뮤니케이션</t>
   </si>
   <si>
@@ -479,24 +402,9 @@
     <t>도전형은 뛰어난 문제 해결 능력을 가지고 있습니다. 이들은 복잡한 문제를 창의적이고 논리적으로 분석하여 최적의 해결책을 찾아냅니다. 도전형은 항상 더 나은 방법을 찾기 위해 노력하며, 이를 통해 업무 효율성과 성과를 향상시킵니다. 이들은 팀 회의나 브레인스토밍 세션에서 적극적으로 참여하여, 다양한 관점을 제시하고 혁신적인 아이디어를 공유합니다.</t>
   </si>
   <si>
-    <t>“이건 새로운 접근 방식이에요 한 번 시도해 봅시다.＂</t>
-  </si>
-  <si>
-    <t>“더 좋은 방법이 있을 거예요. 한 번 찾아봅시다.”</t>
-  </si>
-  <si>
-    <t>항상 더 나은 방법을 모색하고, 기존의 방법에 안주하지 않습니다.</t>
-  </si>
-  <si>
-    <t>“이런 리스크는 감수할 가치가 있어요”</t>
-  </si>
-  <si>
     <t>위험을 감수하는 것을 두려워하지 않으며, 이를 기회로 삼아 성장합니다.</t>
   </si>
   <si>
-    <t>도전형은 자신의 업무 스타일과 의사결정을 밀어붙이고, 위험을 과소평가하며, 세부사항을 간과하는 경향이 있습니다.</t>
-  </si>
-  <si>
     <t>도전형은 독립적으로 일하는 것을 선호하며, 다른 사람의 의견을 듣기보다는 자신의 결정을 밀어붙이는 경향이 있습니다. 이들은 데이터와 정보를 기반으로 의사결정을 하기보다는 개인의 직관과 경험에 의존해 빠르게 결정을 내립니다. 그러나 이는 충분한 고려 없이 충동적으로 결정을 내리게 할 수 있으며, 장기적인 결과를 충분히 생각하지 않고 단기적인 이익에 집중하게 만들 수 있습니다.</t>
   </si>
   <si>
@@ -512,27 +420,6 @@
     <t>이러한 약점을 극복하기 위해 도전형은 결정을 내리기 전에 충분한 정보를 수집하고, 리스크 관리 체계를 강화하며, 팀원들과의 협력과 조율을 중시하는 노력을 기울여야 합니다.</t>
   </si>
   <si>
-    <t>“이거 빨리 처리합시다”</t>
-  </si>
-  <si>
-    <t>빠른 속도와 효율성을 중시하며 일을 신속하게 처리하려는 경향이 있습니다.</t>
-  </si>
-  <si>
-    <t>“그래도.. 한번 해보시죠!”</t>
-  </si>
-  <si>
-    <t>새로운 도전을 즐기고, 위험을 두려워하지 않으며, 
- 과감한 시도를 격려합니다.</t>
-  </si>
-  <si>
-    <t>“이 방법이 맞는지 너무 오래 생각하지 말고 일단 합시다”</t>
-  </si>
-  <si>
-    <t>신속한 결정을 내리고, 
- 과도한 고민보다는 
- 즉각적인 행동을 선호합니다.</t>
-  </si>
-  <si>
     <t>도전형은 경험을 통해 배우는 것을 선호하며, 불확실하고 도전적인 상황에도 과감히 뛰어듭니다. 새로운 도전을 즐기기 때문에 기존의 틀에 얽매이지 않고 새로운 방식을 시도하는 경향이 있습니다. 그러나 절차와 세부사항에 충분한 주의를 기울이지 않아 필요한 자료와 증거를 놓치기도 합니다. 새로운 지식을 학습하거나 지침을 따르는 것보다는, 추론을 통해 빠르게 결론을 내리는 것을 선호합니다.</t>
   </si>
   <si>
@@ -545,19 +432,10 @@
     <t>도전형 리더는 변화에 대한 강한 의지와 새로운 영역의 개척자 로서의 역할을 수행합니다. 이들은 결과를 빠르게 도출하고, 어려운 의사결정을 두려워하지 않는 믿음직한 리더일 수 있지만, 도전형 리더의 업무 속도를 따라오지 못하는 팀원들에게는 인내심의 한계를 느껴 갈등을 초래할 수 있습니다. 그러나 도전형 리더의 열정과 에너지는 팀의 긍정적이고 낙관적인 태도를 이끌어내며, 이러한 에너지를 전파해 팀의 사기를 높이는 데 큰 역할을 합니다.</t>
   </si>
   <si>
-    <t>변화 추진의 주도성</t>
-  </si>
-  <si>
     <t>도전형은 변화를 단순히 수용하는 것을 넘어, 스스로 변화를 주도하려고 합니다. 이들은 조직 내에서 변화를 이끌어가는 주체로서, 새로운 기회를 창출하고, 이를 통해 조직의 성장을 이끌어냅니다. 도전형의 주도적인 변화 추진은 조직이 정체되지 않고, 지속적으로 발전하는 데 큰 기여를 합니다.</t>
   </si>
   <si>
-    <t>창의적 문제 해결</t>
-  </si>
-  <si>
     <t>변화 속에서 창의적인 해결책을 모색하는 데 뛰어납니다. 이들은 기존의 방법에 얽매이지 않고, 새로운 아이디어를 적극적으로 도입하여 문제를 해결합니다. 변화가 주는 도전 과제를 기회로 받아들이며, 이를 통해 조직의 발전을 도모합니다.</t>
-  </si>
-  <si>
-    <t>팀의 동기부여</t>
   </si>
   <si>
     <t>자신의 열정과 에너지를 팀에 전파하여 팀원들이 변화에 긍정적으로 대응할 수 있도록 돕습니다. 이들은 팀원들에게 변화를 두려워하지 말고, 이를 통해 성장할 수 있는 기회로 받아들이도록 독려합니다. 또한, 도전형 리더는 변화 속에서 팀원들이 필요한 지원과 자원을 제공하며, 팀이 하나로 뭉쳐 목표를 향해 나아가도록 합니다</t>
@@ -582,9 +460,6 @@
     <t>새로운 도전과 변화를 수용하는 환경 제공, 활기차고 에너제틱한 분위기 조성</t>
   </si>
   <si>
-    <t>“새로운 도전과 변화를 맞이할 때 가장 열정이 솟아납니다.”</t>
-  </si>
-  <si>
     <t>실용적이고 실속한 결과</t>
   </si>
   <si>
@@ -594,9 +469,6 @@
     <t>실질적인 결과 도출을 위한 간결한 절차 제공, 빠른 실행과 성과를 중시하는 문화 조성</t>
   </si>
   <si>
-    <t>"빠른 실행과 실질적인 결과를 통해 성과를 내는 것을 좋아합니다"</t>
-  </si>
-  <si>
     <t>혁신과 창의성 발휘</t>
   </si>
   <si>
@@ -606,9 +478,6 @@
     <t>창의적인 아이디어를 제안하고 실현할 기회 제공, 혁신적인 해결책을 탐색할 수 있는 지원과 자원 제공</t>
   </si>
   <si>
-    <t>"창의적인 아이디어를 제안하고 실현할 수 있을 때 가장 큰 동기부여를 느낍니다”</t>
-  </si>
-  <si>
     <t>도전형은 빠른 실행과 결단을 선호하고, 분석형은 체계적인 계획과 데이터 기반의 결정을 중시합니다. 두 유형의 강점을 살리기 위해 명확한 역할 분담이 필요합니다.</t>
   </si>
   <si>
@@ -664,9 +533,6 @@
   </si>
   <si>
     <t>체계적인 계획을 세우고 이에 따라 꾸준히 업무를 수행하는 안정형은 체계적인 방법론을 통해 효율성을 극대화합니다. 명확한 절차와 일관된 방식을 통해 업무의 일관성을 유지하고 오류를 최소화하며, 예측 가능한 결과를 도출합니다. 이러한 체계적인 접근 방식은 안정형이 시간과 자원을 효과적으로 관리할 수 있게 하여, 업무 효율성을 높이는 데 큰 역할을 합니다.</t>
-  </si>
-  <si>
-    <t>“ 프로세스를 먼저 확인해 볼게요“</t>
   </si>
   <si>
     <t>안정형은 일할 때 항상 명확한 절차와 일관된 방식을 사용해서 실수를 줄이고 일의 흐름을 일정하게 유지합니다. 예상 가능한 결과 예측하며, 업무 효율성을 관리합니다.</t>
@@ -688,19 +554,10 @@
     <t>안정형은 세부 사항에 지나치게 집중하여 큰 그림을 놓칠 수 있습니다. 이는 세부적인 분석에 집중하여 중요한 결정을 미루거나, 전체적인 전략적 목표를 간과할 수 있습니다. 과도한 세부 사항 집중은 프로젝트 진행 속도를 늦추고, 팀의 전반적인 효율성을 저하시킬 수 있습니다.</t>
   </si>
   <si>
-    <t>“이 방식이 익숙해서요.”</t>
-  </si>
-  <si>
     <t>안정형은 새로운 방식보다는 익숙한 방식에 편안함을 느끼며, 변화를 피하려는 경향이 있습니다.</t>
   </si>
   <si>
-    <t>“예상하지 못한 상황이네요. 어떻게 해야 할지...”</t>
-  </si>
-  <si>
     <t>안정형은 예기치 못한 변화에 대한 대처가 어려울 수 있습니다. 이는 빠른 의사결정이 필요한 상황에서 문제를 초래할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>“모든 가능성을 고려해봐야 해요.”</t>
   </si>
   <si>
     <t>안정형은 모든 가능성을 검토하고, 결정을 내리기까지 시간이 걸립니다. 신속한 결정이 필요한 상황에서, 안정형은 마음이 어려울 수 있어요</t>
@@ -744,9 +601,6 @@
     <t>안정형은 명확한 목표와 기대를 가지고 일하는 것을 선호합니다. 이는 이들이 목표를 달성하기 위해 필요한 방향성을 제공합니다.</t>
   </si>
   <si>
-    <t>“무엇을 해야 할지 분명히 알 때 일을 더 잘 할 수 있어요”</t>
-  </si>
-  <si>
     <t>팀의 신뢰와 협력</t>
   </si>
   <si>
@@ -754,9 +608,6 @@
   </si>
   <si>
     <t>신뢰를 바탕으로 한 팀워크 강화, 협력적인 분위기 조성</t>
-  </si>
-  <si>
-    <t>“팀원들과 함께 서로를 믿으며 일할 때 동기부여가 돼요”</t>
   </si>
   <si>
     <t>명확한 데이터와 사실 기반 접근</t>
@@ -803,11 +654,6 @@
   </si>
   <si>
     <t>안정형은 체계적인 업무 분담을 선호합니다. 두 명의 안정형이 함께 일할 때 업무 분담과 효율성을 높이는 것이 중요합니다.</t>
-  </si>
-  <si>
-    <t>“그렇게 느낄 수 있을 것 같아요. 
- 같이 해결해 나가봐요＂</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>감정적 지지와 공감을 통해 
@@ -816,15 +662,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>모든 의견을 고려하다 보면 과정이 더 복잡해 질 수 있습니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>혁신적인 아이디어와 접근 방식을 즐겨 사용하며, 
- 변화를 주도합니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>명확한 역할 분담</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4416,10 +4253,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>“우선, 세부사항을 제가 검토해 볼 게요“</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>안정형은 세세한 부분까지 신경쓰며, 실수를 최소화하기 위해 노력합니다. 이들은 모든 세부 사항을 철저히 검토하여 높은 정확성과 품질을 유지합니다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4432,14 +4265,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>“저는 안정된 환경에서 일을 할 때 가장 집중이 잘돼요”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"무엇을 해야 할지 분명히 알 때 일을 더 잘 할 수 있어요”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>분석형은 명확한 목표와 기대를 가지고 일하는 것을 선호합니다. 이들은 목표를 달성하기 위해 필요한 방향성을 제공받는 것을 중요하게 생각합니다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4452,14 +4277,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>명확한 소통과 지원</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>철저한 준비 계획 수립</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>안정형은 변화 과정에서 명확한 소통과 지원을 중요하게 생각합니다. 변화의 이유와 목표를 명확히 설명 받고, 필요한 지원과 정보를 제공받을 때 더 잘 대응할 수 있습니다. 또한, 변화 중에도 일관된 절차와 기준을 유지하려는 욕구가 강하기 때문에, 변화를 수용하는 동안에도 필요한 지원과 정보를 찾으려 노력합니다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4484,11 +4301,240 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>“서로 잘 지내는게 중요하니까요”</t>
+    <t>문제를 해결 해야하는 대화 보다는 상황을 회피하는 편을 선택하는 경우가 있습니다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>문제를 해결 해야하는 대화 보다는 상황을 회피하는 편을 선택하는 경우가 있습니다.</t>
+    <t>“이 사안의 핵심을\n 파악해 봐야 할 것 같아요“</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“필요한 자료와 정보를\n 먼저 취합해주세요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“먼저 추진 계획을 세운 후에 논의하시지요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제의 핵심을 파악하고\n 이해하는데 중점을 둡니다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>충분한 자료와 정보를 수집하여,\n데이터 기반의 의사결정을 중요시 합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석형에게는 체계적인 계획과\n명확한 목표 설정이 필요합니다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“더 많은 데이터 (정보)가\n 필요해요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>충분한 데이터가 없을 경우\n 결정을 미루거나 주저하게 됩니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 사항에 지나치게 집중하는 경향이 있어\n 효율성이 떨어집니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획과 절차를 중시하는 성향 때문에\n 예상치 못한 변화나 예외 상황에\n 적응하기 어려워합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석형은 체계적이고 논리적인 접근 방식을 통해 팀의 문제를 해결합니다. 복잡한 문제를 세부적으로 분석하고, 데이터 기반의 의사 결정을 통해 효율적인 해결책을 제시합니다. 이들은 문제의 근본 원인을 규명하고, 최적의 해결책을 찾는 데 뛰어난 능력을 발휘합니다. 이러한 접근 방식은 팀이 직면한 문제를 신속하게 해결하고, 조직의 목표 달성에 중요한 기여를 합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"무엇을 해야 할지 분명히 알 때\n 일을 더 잘 할 수 있어요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"제가 주도적으로 계획하고\n 실행할 수 있을 때 가장 만족합니다"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"안정된 환경에서 일을 할 때\n 가장 집중이 잘 돼요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신중한 분석과\n 정보 수집</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구체적인\n계획 수립</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔직한\n소통과 피드백</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“그렇게 느낄 수 있을 것 같아요.\n같이 해결해 나가봐요＂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“이 부분에서, \n어떤 지원이 필요한지 알려주세요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“모두의 의견을 듣고 싶어요. \n  
+ 어떻게 생각하세요?”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대의 이해하고, 필요사항을 파악함으로써\n팀의 협력적 분위기를 도모합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계형에게는 모두의 의견이\n민주적으로 표현되는 환경을 선호합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“서로 잘 지내는게\n중요하니까요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“각자의 의견을 최대한\n반영해 볼게요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“모두가\n참여 할 수 있도록 해요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 의견을 고려하다 보면,\n과정이 더 복잡해 질 수 있습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“모두의 의견을 듣고 협력할 때\n가장 큰 만족을 느낍니다”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"각자의 필요를 이해하고 배려할 때\n가장 큰 성취감을 느낍니다”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“긍정적인 피드백과 협력이 있을 때\n최고의 성과를 냅니다.”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“새로운 접근 방식이에요\n 한 번 시도해 봅시다.＂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>혁신적인 아이디어와 접근 방식을\n즐겨 사용하며, 변화를 주도합니다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“더 좋은 방법이 있을 거예요.\n 한 번 찾아봅시다.”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>항상 더 나은 방법을 모색하고,\n기존의 방법에 안주하지 않습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“이런 리스크는\n감수할 가치가 있어요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>도전형은 자신의 업무 스타일과 의사결정을 밀어붙이고, 위험을 과소평가하며, 세부사항을 간과하는 경향이 있습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“그래도...\n한번 해보시죠!”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“이거 빨리\n처리합시다”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“이 방법이 맞는지\n너무 오래 생각하지 말고\n일단 합시다”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신속한 결정을 내리고,\n과도한 고민보다는\n즉각적인 행동을 선호합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 도전을 즐기고,\n위험을 두려워하지 않으며,\n과감한 시도를 격려합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠른 속도와 효율성을 중시하며\n일을 신속하게 처리하려는 경향이 있습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“새로운 도전과 변화를 맞이할 때\n가장 열정이 솟아납니다.”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"빠른 실행과 실질적인 결과를 통해\n성과를 내는 것을 좋아합니다"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화 추진의\n주도성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>창의적\n문제 해결</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀의\n동기부여</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>도전형</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“제가 세부사항을\n 검토해 볼게요“</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“프로세스를 먼저\n확인해 볼게요“</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“이 방식이\n익숙해서요.”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“예상하지 못한 상황이네요.\n어떻게 해야 할지...”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“모든 가능성을\n고려해봐야 해요.”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“저는 안정된 환경에서 일을 할 때\n가장 집중이 잘돼요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“무엇을 해야 할지 분명히 알 때\n일을 더 잘 할 수 있어요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“팀원들과 함께 서로를 믿으며\n일할 때 동기부여가 돼요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>철저한 준비\n계획 수립</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>명확한\n소통과 지원</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"창의적인 아이디어를 제안하고\n실현할 수 있을 때\n장 큰 동기부여를 느낍니다”</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4843,14 +4889,14 @@
   </sheetPr>
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="G182" sqref="G182"/>
+    <sheetView tabSelected="1" topLeftCell="C75" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="3" max="3" width="255.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
@@ -4858,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4911,7 +4957,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4929,7 +4975,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4947,7 +4993,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4965,7 +5011,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4980,13 +5026,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5000,13 +5046,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>292</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -5020,13 +5066,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>293</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -5040,10 +5086,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -5058,10 +5104,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5076,10 +5122,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -5094,10 +5140,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5112,10 +5158,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5130,10 +5176,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5148,13 +5194,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>295</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -5168,13 +5214,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>296</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -5188,13 +5234,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5208,10 +5254,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="1"/>
@@ -5226,10 +5272,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -5244,10 +5290,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -5262,10 +5308,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -5280,13 +5326,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -5300,13 +5346,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>303</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -5320,13 +5366,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>304</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -5340,10 +5386,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5358,10 +5404,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -5376,10 +5422,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -5394,19 +5440,19 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -5418,19 +5464,19 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -5442,19 +5488,19 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -5466,27 +5512,27 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25">
@@ -5494,27 +5540,27 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25">
@@ -5522,27 +5568,27 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25">
@@ -5550,38 +5596,38 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5593,13 +5639,13 @@
     </row>
     <row r="37" spans="1:10" ht="14.25">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5611,13 +5657,13 @@
     </row>
     <row r="38" spans="1:10" ht="14.25">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5629,13 +5675,13 @@
     </row>
     <row r="39" spans="1:10" ht="14.25">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5647,13 +5693,13 @@
     </row>
     <row r="40" spans="1:10" ht="14.25">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5665,16 +5711,16 @@
     </row>
     <row r="41" spans="1:10" ht="122.25">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5685,16 +5731,16 @@
     </row>
     <row r="42" spans="1:10" ht="14.25">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>93</v>
+        <v>16</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>94</v>
+        <v>308</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5703,18 +5749,18 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="14.25">
+    <row r="43" spans="1:10" ht="27.75">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>95</v>
+        <v>16</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>96</v>
+        <v>309</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -5725,13 +5771,13 @@
     </row>
     <row r="44" spans="1:10" ht="14.25">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5743,13 +5789,13 @@
     </row>
     <row r="45" spans="1:10" ht="14.25">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5761,13 +5807,13 @@
     </row>
     <row r="46" spans="1:10" ht="14.25">
       <c r="A46" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5779,13 +5825,13 @@
     </row>
     <row r="47" spans="1:10" ht="14.25">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5797,13 +5843,13 @@
     </row>
     <row r="48" spans="1:10" ht="14.25">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5815,13 +5861,13 @@
     </row>
     <row r="49" spans="1:10" ht="14.25">
       <c r="A49" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -5833,16 +5879,16 @@
     </row>
     <row r="50" spans="1:10" ht="14.25">
       <c r="A50" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -5851,18 +5897,18 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" ht="81.75">
+    <row r="51" spans="1:10" ht="14.25">
       <c r="A51" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>259</v>
+        <v>311</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -5873,16 +5919,16 @@
     </row>
     <row r="52" spans="1:10" ht="14.25">
       <c r="A52" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>104</v>
+        <v>312</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5893,13 +5939,13 @@
     </row>
     <row r="53" spans="1:10" ht="14.25">
       <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="1"/>
@@ -5911,13 +5957,13 @@
     </row>
     <row r="54" spans="1:10" ht="14.25">
       <c r="A54" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5929,13 +5975,13 @@
     </row>
     <row r="55" spans="1:10" ht="14.25">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5947,13 +5993,13 @@
     </row>
     <row r="56" spans="1:10" ht="14.25">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5965,16 +6011,16 @@
     </row>
     <row r="57" spans="1:10" ht="14.25">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5985,16 +6031,16 @@
     </row>
     <row r="58" spans="1:10" ht="14.25">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -6005,16 +6051,16 @@
     </row>
     <row r="59" spans="1:10" ht="14.25">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -6025,13 +6071,13 @@
     </row>
     <row r="60" spans="1:10" ht="14.25">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -6043,13 +6089,13 @@
     </row>
     <row r="61" spans="1:10" ht="14.25">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -6061,13 +6107,13 @@
     </row>
     <row r="62" spans="1:10" ht="14.25">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -6079,22 +6125,22 @@
     </row>
     <row r="63" spans="1:10" ht="14.25">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>122</v>
+        <v>314</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -6103,22 +6149,22 @@
     </row>
     <row r="64" spans="1:10" ht="14.25">
       <c r="A64" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -6127,22 +6173,22 @@
     </row>
     <row r="65" spans="1:10" ht="14.25">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>129</v>
+        <v>316</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -6151,125 +6197,125 @@
     </row>
     <row r="66" spans="1:10" ht="14.25">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.25">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.25">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.25">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -6281,13 +6327,13 @@
     </row>
     <row r="71" spans="1:10" ht="14.25">
       <c r="A71" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -6299,13 +6345,13 @@
     </row>
     <row r="72" spans="1:10" ht="14.25">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -6317,13 +6363,13 @@
     </row>
     <row r="73" spans="1:10" ht="14.25">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -6335,13 +6381,13 @@
     </row>
     <row r="74" spans="1:10" ht="14.25">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -6351,18 +6397,18 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" ht="95.25">
+    <row r="75" spans="1:10" ht="14.25">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>260</v>
+        <v>317</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -6373,16 +6419,16 @@
     </row>
     <row r="76" spans="1:10" ht="14.25">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>153</v>
+        <v>320</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -6393,16 +6439,16 @@
     </row>
     <row r="77" spans="1:10" ht="14.25">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>154</v>
+        <v>321</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -6413,13 +6459,13 @@
     </row>
     <row r="78" spans="1:10" ht="14.25">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>156</v>
+        <v>322</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -6431,13 +6477,13 @@
     </row>
     <row r="79" spans="1:10" ht="14.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -6449,13 +6495,13 @@
     </row>
     <row r="80" spans="1:10" ht="14.25">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -6467,13 +6513,13 @@
     </row>
     <row r="81" spans="1:10" ht="14.25">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -6485,13 +6531,13 @@
     </row>
     <row r="82" spans="1:10" ht="14.25">
       <c r="A82" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -6503,13 +6549,13 @@
     </row>
     <row r="83" spans="1:10" ht="14.25">
       <c r="A83" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -6521,16 +6567,16 @@
     </row>
     <row r="84" spans="1:10" ht="14.25">
       <c r="A84" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>163</v>
+        <v>328</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -6541,16 +6587,16 @@
     </row>
     <row r="85" spans="1:10" ht="14.25">
       <c r="A85" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>164</v>
+        <v>323</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>165</v>
+        <v>327</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -6561,16 +6607,16 @@
     </row>
     <row r="86" spans="1:10" ht="14.25">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>166</v>
+        <v>325</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>167</v>
+        <v>326</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -6581,13 +6627,13 @@
     </row>
     <row r="87" spans="1:10" ht="14.25">
       <c r="A87" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="1"/>
@@ -6599,13 +6645,13 @@
     </row>
     <row r="88" spans="1:10" ht="14.25">
       <c r="A88" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -6617,13 +6663,13 @@
     </row>
     <row r="89" spans="1:10" ht="14.25">
       <c r="A89" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -6635,13 +6681,13 @@
     </row>
     <row r="90" spans="1:10" ht="14.25">
       <c r="A90" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -6653,16 +6699,16 @@
     </row>
     <row r="91" spans="1:10" ht="14.25">
       <c r="A91" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>172</v>
+        <v>331</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -6673,16 +6719,16 @@
     </row>
     <row r="92" spans="1:10" ht="14.25">
       <c r="A92" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>174</v>
+        <v>332</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -6693,16 +6739,16 @@
     </row>
     <row r="93" spans="1:10" ht="14.25">
       <c r="A93" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>176</v>
+        <v>333</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -6713,13 +6759,13 @@
     </row>
     <row r="94" spans="1:10" ht="14.25">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -6731,13 +6777,13 @@
     </row>
     <row r="95" spans="1:10" ht="14.25">
       <c r="A95" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -6749,13 +6795,13 @@
     </row>
     <row r="96" spans="1:10" ht="14.25">
       <c r="A96" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -6767,22 +6813,22 @@
     </row>
     <row r="97" spans="1:10" ht="14.25">
       <c r="A97" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>184</v>
+        <v>329</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -6791,22 +6837,22 @@
     </row>
     <row r="98" spans="1:10" ht="14.25">
       <c r="A98" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>188</v>
+        <v>330</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -6815,22 +6861,22 @@
     </row>
     <row r="99" spans="1:10" ht="14.25">
       <c r="A99" s="1" t="s">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>192</v>
+        <v>345</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -6839,125 +6885,125 @@
     </row>
     <row r="100" spans="1:10" ht="14.25">
       <c r="A100" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="14.25">
       <c r="A101" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="14.25">
       <c r="A102" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="14.25">
       <c r="A103" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="14.25">
       <c r="A104" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -6969,13 +7015,13 @@
     </row>
     <row r="105" spans="1:10" ht="14.25">
       <c r="A105" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -6987,13 +7033,13 @@
     </row>
     <row r="106" spans="1:10" ht="14.25">
       <c r="A106" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -7005,13 +7051,13 @@
     </row>
     <row r="107" spans="1:10" ht="14.25">
       <c r="A107" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -7023,13 +7069,13 @@
     </row>
     <row r="108" spans="1:10" ht="14.25">
       <c r="A108" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -7041,16 +7087,16 @@
     </row>
     <row r="109" spans="1:10" ht="14.25">
       <c r="A109" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -7061,16 +7107,16 @@
     </row>
     <row r="110" spans="1:10" ht="14.25">
       <c r="A110" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -7081,13 +7127,13 @@
     </row>
     <row r="111" spans="1:10" ht="14.25">
       <c r="A111" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -7099,13 +7145,13 @@
     </row>
     <row r="112" spans="1:10" ht="14.25">
       <c r="A112" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -7117,13 +7163,13 @@
     </row>
     <row r="113" spans="1:10" ht="14.25">
       <c r="A113" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -7135,13 +7181,13 @@
     </row>
     <row r="114" spans="1:10" ht="14.25">
       <c r="A114" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -7153,13 +7199,13 @@
     </row>
     <row r="115" spans="1:10" ht="14.25">
       <c r="A115" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -7171,16 +7217,16 @@
     </row>
     <row r="116" spans="1:10" ht="14.25">
       <c r="A116" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>219</v>
+        <v>337</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -7191,16 +7237,16 @@
     </row>
     <row r="117" spans="1:10" ht="14.25">
       <c r="A117" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>221</v>
+        <v>338</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -7211,16 +7257,16 @@
     </row>
     <row r="118" spans="1:10" ht="14.25">
       <c r="A118" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>223</v>
+        <v>339</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -7231,13 +7277,13 @@
     </row>
     <row r="119" spans="1:10" ht="14.25">
       <c r="A119" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="1"/>
@@ -7249,13 +7295,13 @@
     </row>
     <row r="120" spans="1:10" ht="14.25">
       <c r="A120" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -7267,13 +7313,13 @@
     </row>
     <row r="121" spans="1:10" ht="14.25">
       <c r="A121" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -7285,13 +7331,13 @@
     </row>
     <row r="122" spans="1:10" ht="14.25">
       <c r="A122" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -7303,16 +7349,16 @@
     </row>
     <row r="123" spans="1:10" ht="14.25">
       <c r="A123" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -7323,16 +7369,16 @@
     </row>
     <row r="124" spans="1:10" ht="14.25">
       <c r="A124" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -7343,16 +7389,16 @@
     </row>
     <row r="125" spans="1:10" ht="14.25">
       <c r="A125" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -7363,13 +7409,13 @@
     </row>
     <row r="126" spans="1:10" ht="14.25">
       <c r="A126" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -7381,13 +7427,13 @@
     </row>
     <row r="127" spans="1:10" ht="14.25">
       <c r="A127" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -7399,13 +7445,13 @@
     </row>
     <row r="128" spans="1:10" ht="14.25">
       <c r="A128" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -7417,22 +7463,22 @@
     </row>
     <row r="129" spans="1:10" ht="14.25">
       <c r="A129" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -7441,22 +7487,22 @@
     </row>
     <row r="130" spans="1:10" ht="14.25">
       <c r="A130" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -7465,22 +7511,22 @@
     </row>
     <row r="131" spans="1:10" ht="14.25">
       <c r="A131" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>241</v>
+        <v>342</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -7489,675 +7535,675 @@
     </row>
     <row r="132" spans="1:10" ht="14.25">
       <c r="A132" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="14.25">
       <c r="A133" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="14.25">
       <c r="A134" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="14.25">
       <c r="A135" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15.75" customHeight="1">
       <c r="A136" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.75" customHeight="1">
       <c r="A137" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.75" customHeight="1">
       <c r="A138" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.75" customHeight="1">
       <c r="A139" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.75" customHeight="1">
       <c r="A140" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15.75" customHeight="1">
       <c r="A141" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.75" customHeight="1">
       <c r="A142" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.75" customHeight="1">
       <c r="A143" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="15.75" customHeight="1">
       <c r="A144" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1">
       <c r="A145" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1">
       <c r="A146" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1">
       <c r="A147" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1">
       <c r="A148" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>276</v>
+        <v>225</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1">
       <c r="A149" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1">
       <c r="A150" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1">
       <c r="A151" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" customHeight="1">
       <c r="A152" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" customHeight="1">
       <c r="A153" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" customHeight="1">
       <c r="A154" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" customHeight="1">
       <c r="A155" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15.75" customHeight="1">
       <c r="A156" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15.75" customHeight="1">
       <c r="A157" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15.75" customHeight="1">
       <c r="A158" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1">
       <c r="A159" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" customHeight="1">
       <c r="A160" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1">
       <c r="A161" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1">
       <c r="A162" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1">
       <c r="A163" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1">
       <c r="A164" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1">
       <c r="A165" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1">
       <c r="A166" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>295</v>
+        <v>244</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1">
       <c r="A167" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1">
       <c r="A168" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1">
       <c r="A169" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1">
       <c r="A170" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1">
       <c r="A171" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1">
       <c r="A172" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1">
       <c r="A173" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1">
       <c r="A174" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1">
       <c r="A175" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1">
       <c r="A176" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1">
       <c r="A177" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>307</v>
+        <v>256</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1">
       <c r="A178" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15.75" customHeight="1">
       <c r="A179" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15.75" customHeight="1">
       <c r="A180" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1">
       <c r="A181" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1">
       <c r="A182" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1">
       <c r="A183" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1">
       <c r="A184" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15.75" customHeight="1">
       <c r="A185" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>315</v>
+        <v>264</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1">
       <c r="A186" s="7" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/public/result-main.xlsx
+++ b/public/result-main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Root\Desktop\SEAL-project\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67860404-4034-4F23-ADC7-48B7F0801DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FAB52F-3C13-4A4C-9D69-EEFE988F2FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>“이 부분을 다시 한번 검토해볼게요”</t>
   </si>
   <si>
-    <t>“계획대로 하지 않으면, 혼란이 생길 것 같아요”</t>
-  </si>
-  <si>
     <t>work_style</t>
   </si>
   <si>
@@ -4313,10 +4310,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>“먼저 추진 계획을 세운 후에 논의하시지요”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>문제의 핵심을 파악하고\n 이해하는데 중점을 둡니다</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4337,10 +4330,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>세부 사항에 지나치게 집중하는 경향이 있어\n 효율성이 떨어집니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>계획과 절차를 중시하는 성향 때문에\n 예상치 못한 변화나 예외 상황에\n 적응하기 어려워합니다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4361,15 +4350,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>신중한 분석과\n 정보 수집</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>구체적인\n계획 수립</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔직한\n소통과 피드백</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4386,10 +4367,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>상대의 이해하고, 필요사항을 파악함으로써\n팀의 협력적 분위기를 도모합니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>관계형에게는 모두의 의견이\n민주적으로 표현되는 환경을 선호합니다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4466,10 +4443,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>빠른 속도와 효율성을 중시하며\n일을 신속하게 처리하려는 경향이 있습니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>“새로운 도전과 변화를 맞이할 때\n가장 열정이 솟아납니다.”</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4534,7 +4507,35 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>"창의적인 아이디어를 제안하고\n실현할 수 있을 때\n장 큰 동기부여를 느낍니다”</t>
+    <t>“먼저 추진 계획을 세운 후에\n 논의하시지요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“계획대로 하지 않으면,\n혼란이 생길 것 같아요”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 사항에 지나치게 집중하는\n 경향이 있어 효율성이 떨어집니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔직한\n소통과\n 피드백</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신중한\n분석과\n정보 수집</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대를 이해하고,\n 필요사항을 파악함으로써\n팀의 협력적 분위기를 도모합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠른 속도와 효율성을 중시하며\n일을 신속하게 처리하려는\n 경향이 있습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"창의적인 아이디어를 제안하고\n실현할 수 있을 때\n가장 큰 동기부여를 느낍니다”</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4889,8 +4890,8 @@
   </sheetPr>
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C75" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="D44" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4904,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4957,7 +4958,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5029,10 +5030,10 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5049,10 +5050,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -5069,10 +5070,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -5197,10 +5198,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -5220,7 +5221,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -5237,10 +5238,10 @@
         <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5254,10 +5255,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="1"/>
@@ -5272,10 +5273,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -5290,10 +5291,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -5308,10 +5309,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -5326,13 +5327,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -5346,13 +5347,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -5366,13 +5367,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -5386,10 +5387,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5404,10 +5405,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -5422,10 +5423,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -5440,19 +5441,19 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -5464,19 +5465,19 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -5488,19 +5489,19 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -5512,27 +5513,27 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25">
@@ -5540,27 +5541,27 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25">
@@ -5568,27 +5569,27 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25">
@@ -5596,38 +5597,38 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5639,13 +5640,13 @@
     </row>
     <row r="37" spans="1:10" ht="14.25">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5657,13 +5658,13 @@
     </row>
     <row r="38" spans="1:10" ht="14.25">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5675,13 +5676,13 @@
     </row>
     <row r="39" spans="1:10" ht="14.25">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5693,13 +5694,13 @@
     </row>
     <row r="40" spans="1:10" ht="14.25">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5711,16 +5712,16 @@
     </row>
     <row r="41" spans="1:10" ht="122.25">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5731,16 +5732,16 @@
     </row>
     <row r="42" spans="1:10" ht="14.25">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5751,16 +5752,16 @@
     </row>
     <row r="43" spans="1:10" ht="27.75">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -5771,13 +5772,13 @@
     </row>
     <row r="44" spans="1:10" ht="14.25">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5789,13 +5790,13 @@
     </row>
     <row r="45" spans="1:10" ht="14.25">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5807,13 +5808,13 @@
     </row>
     <row r="46" spans="1:10" ht="14.25">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5825,13 +5826,13 @@
     </row>
     <row r="47" spans="1:10" ht="14.25">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5843,13 +5844,13 @@
     </row>
     <row r="48" spans="1:10" ht="14.25">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5861,13 +5862,13 @@
     </row>
     <row r="49" spans="1:10" ht="14.25">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -5879,16 +5880,16 @@
     </row>
     <row r="50" spans="1:10" ht="14.25">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -5899,16 +5900,16 @@
     </row>
     <row r="51" spans="1:10" ht="14.25">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -5919,16 +5920,16 @@
     </row>
     <row r="52" spans="1:10" ht="14.25">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5939,13 +5940,13 @@
     </row>
     <row r="53" spans="1:10" ht="14.25">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="1"/>
@@ -5957,13 +5958,13 @@
     </row>
     <row r="54" spans="1:10" ht="14.25">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5975,13 +5976,13 @@
     </row>
     <row r="55" spans="1:10" ht="14.25">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5993,13 +5994,13 @@
     </row>
     <row r="56" spans="1:10" ht="14.25">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -6011,16 +6012,16 @@
     </row>
     <row r="57" spans="1:10" ht="14.25">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -6031,16 +6032,16 @@
     </row>
     <row r="58" spans="1:10" ht="14.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -6051,16 +6052,16 @@
     </row>
     <row r="59" spans="1:10" ht="14.25">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -6071,13 +6072,13 @@
     </row>
     <row r="60" spans="1:10" ht="14.25">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -6089,13 +6090,13 @@
     </row>
     <row r="61" spans="1:10" ht="14.25">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -6107,13 +6108,13 @@
     </row>
     <row r="62" spans="1:10" ht="14.25">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -6125,22 +6126,22 @@
     </row>
     <row r="63" spans="1:10" ht="14.25">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -6149,22 +6150,22 @@
     </row>
     <row r="64" spans="1:10" ht="14.25">
       <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -6173,22 +6174,22 @@
     </row>
     <row r="65" spans="1:10" ht="14.25">
       <c r="A65" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -6197,125 +6198,125 @@
     </row>
     <row r="66" spans="1:10" ht="14.25">
       <c r="A66" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.25">
       <c r="A67" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.25">
       <c r="A68" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="J69" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.25">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -6327,13 +6328,13 @@
     </row>
     <row r="71" spans="1:10" ht="14.25">
       <c r="A71" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -6345,13 +6346,13 @@
     </row>
     <row r="72" spans="1:10" ht="14.25">
       <c r="A72" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -6363,13 +6364,13 @@
     </row>
     <row r="73" spans="1:10" ht="14.25">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -6381,13 +6382,13 @@
     </row>
     <row r="74" spans="1:10" ht="14.25">
       <c r="A74" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -6399,16 +6400,16 @@
     </row>
     <row r="75" spans="1:10" ht="14.25">
       <c r="A75" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -6419,16 +6420,16 @@
     </row>
     <row r="76" spans="1:10" ht="14.25">
       <c r="A76" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -6439,16 +6440,16 @@
     </row>
     <row r="77" spans="1:10" ht="14.25">
       <c r="A77" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -6459,13 +6460,13 @@
     </row>
     <row r="78" spans="1:10" ht="14.25">
       <c r="A78" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -6477,13 +6478,13 @@
     </row>
     <row r="79" spans="1:10" ht="14.25">
       <c r="A79" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -6495,13 +6496,13 @@
     </row>
     <row r="80" spans="1:10" ht="14.25">
       <c r="A80" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -6513,13 +6514,13 @@
     </row>
     <row r="81" spans="1:10" ht="14.25">
       <c r="A81" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -6531,13 +6532,13 @@
     </row>
     <row r="82" spans="1:10" ht="14.25">
       <c r="A82" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -6549,13 +6550,13 @@
     </row>
     <row r="83" spans="1:10" ht="14.25">
       <c r="A83" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -6567,16 +6568,16 @@
     </row>
     <row r="84" spans="1:10" ht="14.25">
       <c r="A84" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -6587,16 +6588,16 @@
     </row>
     <row r="85" spans="1:10" ht="14.25">
       <c r="A85" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -6607,16 +6608,16 @@
     </row>
     <row r="86" spans="1:10" ht="14.25">
       <c r="A86" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -6627,13 +6628,13 @@
     </row>
     <row r="87" spans="1:10" ht="14.25">
       <c r="A87" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="1"/>
@@ -6645,13 +6646,13 @@
     </row>
     <row r="88" spans="1:10" ht="14.25">
       <c r="A88" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -6663,13 +6664,13 @@
     </row>
     <row r="89" spans="1:10" ht="14.25">
       <c r="A89" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -6681,13 +6682,13 @@
     </row>
     <row r="90" spans="1:10" ht="14.25">
       <c r="A90" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -6699,16 +6700,16 @@
     </row>
     <row r="91" spans="1:10" ht="14.25">
       <c r="A91" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -6719,16 +6720,16 @@
     </row>
     <row r="92" spans="1:10" ht="14.25">
       <c r="A92" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -6739,16 +6740,16 @@
     </row>
     <row r="93" spans="1:10" ht="14.25">
       <c r="A93" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -6759,13 +6760,13 @@
     </row>
     <row r="94" spans="1:10" ht="14.25">
       <c r="A94" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -6777,13 +6778,13 @@
     </row>
     <row r="95" spans="1:10" ht="14.25">
       <c r="A95" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -6795,13 +6796,13 @@
     </row>
     <row r="96" spans="1:10" ht="14.25">
       <c r="A96" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -6813,22 +6814,22 @@
     </row>
     <row r="97" spans="1:10" ht="14.25">
       <c r="A97" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="F97" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -6837,22 +6838,22 @@
     </row>
     <row r="98" spans="1:10" ht="14.25">
       <c r="A98" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="F98" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -6861,19 +6862,19 @@
     </row>
     <row r="99" spans="1:10" ht="14.25">
       <c r="A99" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>345</v>
@@ -6885,125 +6886,125 @@
     </row>
     <row r="100" spans="1:10" ht="14.25">
       <c r="A100" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H100" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="J100" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="14.25">
       <c r="A101" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="J101" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="14.25">
       <c r="A102" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="14.25">
       <c r="A103" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="I103" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="J103" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="14.25">
       <c r="A104" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -7015,13 +7016,13 @@
     </row>
     <row r="105" spans="1:10" ht="14.25">
       <c r="A105" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -7033,13 +7034,13 @@
     </row>
     <row r="106" spans="1:10" ht="14.25">
       <c r="A106" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -7051,13 +7052,13 @@
     </row>
     <row r="107" spans="1:10" ht="14.25">
       <c r="A107" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -7069,13 +7070,13 @@
     </row>
     <row r="108" spans="1:10" ht="14.25">
       <c r="A108" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -7087,16 +7088,16 @@
     </row>
     <row r="109" spans="1:10" ht="14.25">
       <c r="A109" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -7107,16 +7108,16 @@
     </row>
     <row r="110" spans="1:10" ht="14.25">
       <c r="A110" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -7127,13 +7128,13 @@
     </row>
     <row r="111" spans="1:10" ht="14.25">
       <c r="A111" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -7145,13 +7146,13 @@
     </row>
     <row r="112" spans="1:10" ht="14.25">
       <c r="A112" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -7163,13 +7164,13 @@
     </row>
     <row r="113" spans="1:10" ht="14.25">
       <c r="A113" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -7181,13 +7182,13 @@
     </row>
     <row r="114" spans="1:10" ht="14.25">
       <c r="A114" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -7199,13 +7200,13 @@
     </row>
     <row r="115" spans="1:10" ht="14.25">
       <c r="A115" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -7217,16 +7218,16 @@
     </row>
     <row r="116" spans="1:10" ht="14.25">
       <c r="A116" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -7237,16 +7238,16 @@
     </row>
     <row r="117" spans="1:10" ht="14.25">
       <c r="A117" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -7257,16 +7258,16 @@
     </row>
     <row r="118" spans="1:10" ht="14.25">
       <c r="A118" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -7277,13 +7278,13 @@
     </row>
     <row r="119" spans="1:10" ht="14.25">
       <c r="A119" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="1"/>
@@ -7295,13 +7296,13 @@
     </row>
     <row r="120" spans="1:10" ht="14.25">
       <c r="A120" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -7313,13 +7314,13 @@
     </row>
     <row r="121" spans="1:10" ht="14.25">
       <c r="A121" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -7331,13 +7332,13 @@
     </row>
     <row r="122" spans="1:10" ht="14.25">
       <c r="A122" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -7349,16 +7350,16 @@
     </row>
     <row r="123" spans="1:10" ht="14.25">
       <c r="A123" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -7369,16 +7370,16 @@
     </row>
     <row r="124" spans="1:10" ht="14.25">
       <c r="A124" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -7389,16 +7390,16 @@
     </row>
     <row r="125" spans="1:10" ht="14.25">
       <c r="A125" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -7409,13 +7410,13 @@
     </row>
     <row r="126" spans="1:10" ht="14.25">
       <c r="A126" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -7427,13 +7428,13 @@
     </row>
     <row r="127" spans="1:10" ht="14.25">
       <c r="A127" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -7445,13 +7446,13 @@
     </row>
     <row r="128" spans="1:10" ht="14.25">
       <c r="A128" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -7463,22 +7464,22 @@
     </row>
     <row r="129" spans="1:10" ht="14.25">
       <c r="A129" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C129" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="F129" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -7487,22 +7488,22 @@
     </row>
     <row r="130" spans="1:10" ht="14.25">
       <c r="A130" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="D130" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F130" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -7511,22 +7512,22 @@
     </row>
     <row r="131" spans="1:10" ht="14.25">
       <c r="A131" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C131" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="F131" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -7535,675 +7536,675 @@
     </row>
     <row r="132" spans="1:10" ht="14.25">
       <c r="A132" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="I132" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="J132" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="14.25">
       <c r="A133" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="I133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J133" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="14.25">
       <c r="A134" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H134" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H134" s="1" t="s">
+      <c r="I134" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="J134" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="14.25">
       <c r="A135" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="I135" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I135" s="1" t="s">
+      <c r="J135" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15.75" customHeight="1">
       <c r="A136" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C136" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.75" customHeight="1">
       <c r="A137" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.75" customHeight="1">
       <c r="A138" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.75" customHeight="1">
       <c r="A139" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.75" customHeight="1">
       <c r="A140" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15.75" customHeight="1">
       <c r="A141" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.75" customHeight="1">
       <c r="A142" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.75" customHeight="1">
       <c r="A143" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="15.75" customHeight="1">
       <c r="A144" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1">
       <c r="A145" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1">
       <c r="A146" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1">
       <c r="A147" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1">
       <c r="A148" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C148" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1">
       <c r="A149" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1">
       <c r="A150" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1">
       <c r="A151" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" customHeight="1">
       <c r="A152" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" customHeight="1">
       <c r="A153" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" customHeight="1">
       <c r="A154" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" customHeight="1">
       <c r="A155" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15.75" customHeight="1">
       <c r="A156" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15.75" customHeight="1">
       <c r="A157" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15.75" customHeight="1">
       <c r="A158" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1">
       <c r="A159" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" customHeight="1">
       <c r="A160" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1">
       <c r="A161" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C161" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1">
       <c r="A162" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1">
       <c r="A163" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1">
       <c r="A164" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1">
       <c r="A165" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1">
       <c r="A166" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1">
       <c r="A167" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1">
       <c r="A168" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1">
       <c r="A169" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1">
       <c r="A170" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1">
       <c r="A171" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1">
       <c r="A172" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1">
       <c r="A173" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1">
       <c r="A174" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1">
       <c r="A175" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1">
       <c r="A176" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1">
       <c r="A177" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1">
       <c r="A178" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15.75" customHeight="1">
       <c r="A179" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15.75" customHeight="1">
       <c r="A180" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1">
       <c r="A181" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1">
       <c r="A182" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1">
       <c r="A183" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1">
       <c r="A184" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15.75" customHeight="1">
       <c r="A185" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1">
       <c r="A186" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/public/result-main.xlsx
+++ b/public/result-main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Root\Desktop\SEAL-project\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEAL_0910\SEAL-project\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FAB52F-3C13-4A4C-9D69-EEFE988F2FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C069418-2CA4-4F78-AB30-96C79D48868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70" yWindow="3340" windowWidth="19050" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -4334,10 +4334,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>분석형은 체계적이고 논리적인 접근 방식을 통해 팀의 문제를 해결합니다. 복잡한 문제를 세부적으로 분석하고, 데이터 기반의 의사 결정을 통해 효율적인 해결책을 제시합니다. 이들은 문제의 근본 원인을 규명하고, 최적의 해결책을 찾는 데 뛰어난 능력을 발휘합니다. 이러한 접근 방식은 팀이 직면한 문제를 신속하게 해결하고, 조직의 목표 달성에 중요한 기여를 합니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>"무엇을 해야 할지 분명히 알 때\n 일을 더 잘 할 수 있어요”</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4536,6 +4532,10 @@
   </si>
   <si>
     <t>"창의적인 아이디어를 제안하고\n실현할 수 있을 때\n가장 큰 동기부여를 느낍니다”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석형은 체계적이고 논리적인 접근 방식을 통해 팀의 문제를 해결합니다.복잡한 문제를 세부적으로 분석하고, 데이터 기반의 의사 결정을 통해 효율적인 해결책을 제시합니다. 이들은 문제의 근본 원인을 규명하고, 최적의 해결책을 찾는 데 뛰어난 능력을 발휘합니다. 이러한 접근 방식은 팀이 직면한 문제를 신속하게 해결하고, 조직의 목표 달성에 중요한 기여를 합니다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4890,17 +4890,17 @@
   </sheetPr>
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D44" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="255.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25">
+    <row r="1" spans="1:10" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.25">
+    <row r="2" spans="1:10" ht="14">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4950,7 +4950,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25">
+    <row r="3" spans="1:10" ht="14">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4968,7 +4968,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25">
+    <row r="4" spans="1:10" ht="14">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="14.25">
+    <row r="5" spans="1:10" ht="14">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5004,7 +5004,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="14.25">
+    <row r="6" spans="1:10" ht="14">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -5022,7 +5022,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="14.25">
+    <row r="7" spans="1:10" ht="14">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="14.25">
+    <row r="8" spans="1:10" ht="14">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25">
+    <row r="9" spans="1:10" ht="14">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>291</v>
@@ -5082,7 +5082,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25">
+    <row r="10" spans="1:10" ht="14">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -5100,7 +5100,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25">
+    <row r="11" spans="1:10" ht="14">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -5118,7 +5118,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="14.25">
+    <row r="12" spans="1:10" ht="14">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25">
+    <row r="13" spans="1:10" ht="14">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -5154,7 +5154,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25">
+    <row r="14" spans="1:10" ht="14">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -5172,7 +5172,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25">
+    <row r="15" spans="1:10" ht="14">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -5190,7 +5190,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="14.25">
+    <row r="16" spans="1:10" ht="14">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -5210,7 +5210,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="14.25">
+    <row r="17" spans="1:10" ht="14">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -5230,7 +5230,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="14.25">
+    <row r="18" spans="1:10" ht="14">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>294</v>
@@ -5250,7 +5250,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="14.25">
+    <row r="19" spans="1:10" ht="14">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="14.25">
+    <row r="20" spans="1:10" ht="14">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -5286,7 +5286,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="14.25">
+    <row r="21" spans="1:10" ht="14">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -5304,7 +5304,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="14.25">
+    <row r="22" spans="1:10" ht="14">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -5322,7 +5322,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="14.25">
+    <row r="23" spans="1:10" ht="14">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>34</v>
@@ -5342,7 +5342,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="14.25">
+    <row r="24" spans="1:10" ht="14">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>35</v>
@@ -5362,7 +5362,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="14.25">
+    <row r="25" spans="1:10" ht="14">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>272</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>36</v>
@@ -5382,7 +5382,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="14.25">
+    <row r="26" spans="1:10" ht="14">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -5400,7 +5400,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="14.25">
+    <row r="27" spans="1:10" ht="14">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -5418,7 +5418,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="14.25">
+    <row r="28" spans="1:10" ht="14">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -5436,7 +5436,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="14.25">
+    <row r="29" spans="1:10" ht="14">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -5453,14 +5453,14 @@
         <v>278</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="14.25">
+    <row r="30" spans="1:10" ht="14">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -5477,14 +5477,14 @@
         <v>47</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="14.25">
+    <row r="31" spans="1:10" ht="14">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -5501,14 +5501,14 @@
         <v>50</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="14.25">
+    <row r="32" spans="1:10" ht="14">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.25">
+    <row r="33" spans="1:10" ht="14">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.25">
+    <row r="34" spans="1:10" ht="14">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.25">
+    <row r="35" spans="1:10" ht="14">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.25">
+    <row r="36" spans="1:10" ht="14">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -5638,7 +5638,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="14.25">
+    <row r="37" spans="1:10" ht="14">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -5656,7 +5656,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="14.25">
+    <row r="38" spans="1:10" ht="14">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -5674,7 +5674,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="14.25">
+    <row r="39" spans="1:10" ht="14">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -5692,7 +5692,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="14.25">
+    <row r="40" spans="1:10" ht="14">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -5710,7 +5710,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="122.25">
+    <row r="41" spans="1:10" ht="126">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>208</v>
@@ -5730,7 +5730,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" ht="14.25">
+    <row r="42" spans="1:10" ht="14">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -5738,10 +5738,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5750,7 +5750,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="27.75">
+    <row r="43" spans="1:10" ht="28">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -5758,10 +5758,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -5770,7 +5770,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="14.25">
+    <row r="44" spans="1:10" ht="14">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -5788,7 +5788,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" ht="14.25">
+    <row r="45" spans="1:10" ht="14">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -5806,7 +5806,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" ht="14.25">
+    <row r="46" spans="1:10" ht="14">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -5824,7 +5824,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" ht="14.25">
+    <row r="47" spans="1:10" ht="14">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" ht="14.25">
+    <row r="48" spans="1:10" ht="14">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -5860,7 +5860,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" ht="14.25">
+    <row r="49" spans="1:10" ht="14">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -5878,7 +5878,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" ht="14.25">
+    <row r="50" spans="1:10" ht="14">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>25</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>286</v>
@@ -5898,7 +5898,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" ht="14.25">
+    <row r="51" spans="1:10" ht="14">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -5906,10 +5906,10 @@
         <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -5918,7 +5918,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" ht="14.25">
+    <row r="52" spans="1:10" ht="14">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>25</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>82</v>
@@ -5938,7 +5938,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" ht="14.25">
+    <row r="53" spans="1:10" ht="14">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -5956,7 +5956,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" ht="14.25">
+    <row r="54" spans="1:10" ht="14">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" ht="14.25">
+    <row r="55" spans="1:10" ht="14">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" ht="14.25">
+    <row r="56" spans="1:10" ht="14">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -6010,7 +6010,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" ht="14.25">
+    <row r="57" spans="1:10" ht="14">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -6030,7 +6030,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" ht="14.25">
+    <row r="58" spans="1:10" ht="14">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" ht="14.25">
+    <row r="59" spans="1:10" ht="14">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -6070,7 +6070,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" ht="14.25">
+    <row r="60" spans="1:10" ht="14">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" ht="14.25">
+    <row r="61" spans="1:10" ht="14">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -6106,7 +6106,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" ht="14.25">
+    <row r="62" spans="1:10" ht="14">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
@@ -6124,7 +6124,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" ht="14.25">
+    <row r="63" spans="1:10" ht="14">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
@@ -6141,14 +6141,14 @@
         <v>98</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" ht="14.25">
+    <row r="64" spans="1:10" ht="14">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -6165,14 +6165,14 @@
         <v>100</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" ht="14.25">
+    <row r="65" spans="1:10" ht="14">
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
@@ -6189,14 +6189,14 @@
         <v>103</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" ht="14.25">
+    <row r="66" spans="1:10" ht="14">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14.25">
+    <row r="67" spans="1:10" ht="14">
       <c r="A67" s="1" t="s">
         <v>56</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14.25">
+    <row r="68" spans="1:10" ht="14">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14.25">
+    <row r="69" spans="1:10" ht="14">
       <c r="A69" s="1" t="s">
         <v>56</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="14.25">
+    <row r="70" spans="1:10" ht="14">
       <c r="A70" s="1" t="s">
         <v>61</v>
       </c>
@@ -6326,7 +6326,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" ht="14.25">
+    <row r="71" spans="1:10" ht="14">
       <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
@@ -6344,7 +6344,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" ht="14.25">
+    <row r="72" spans="1:10" ht="14">
       <c r="A72" s="1" t="s">
         <v>61</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" ht="14.25">
+    <row r="73" spans="1:10" ht="14">
       <c r="A73" s="1" t="s">
         <v>61</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="14.25">
+    <row r="74" spans="1:10" ht="14">
       <c r="A74" s="1" t="s">
         <v>61</v>
       </c>
@@ -6398,7 +6398,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" ht="14.25">
+    <row r="75" spans="1:10" ht="14">
       <c r="A75" s="1" t="s">
         <v>61</v>
       </c>
@@ -6406,10 +6406,10 @@
         <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -6418,7 +6418,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" ht="14.25">
+    <row r="76" spans="1:10" ht="14">
       <c r="A76" s="1" t="s">
         <v>61</v>
       </c>
@@ -6426,10 +6426,10 @@
         <v>16</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -6438,7 +6438,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" ht="14.25">
+    <row r="77" spans="1:10" ht="14">
       <c r="A77" s="1" t="s">
         <v>61</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>125</v>
@@ -6458,7 +6458,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" ht="14.25">
+    <row r="78" spans="1:10" ht="14">
       <c r="A78" s="1" t="s">
         <v>61</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -6476,7 +6476,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" ht="14.25">
+    <row r="79" spans="1:10" ht="14">
       <c r="A79" s="1" t="s">
         <v>61</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" ht="14.25">
+    <row r="80" spans="1:10" ht="14">
       <c r="A80" s="1" t="s">
         <v>61</v>
       </c>
@@ -6512,7 +6512,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" ht="14.25">
+    <row r="81" spans="1:10" ht="14">
       <c r="A81" s="1" t="s">
         <v>61</v>
       </c>
@@ -6530,7 +6530,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" ht="14.25">
+    <row r="82" spans="1:10" ht="14">
       <c r="A82" s="1" t="s">
         <v>61</v>
       </c>
@@ -6548,7 +6548,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" ht="14.25">
+    <row r="83" spans="1:10" ht="14">
       <c r="A83" s="1" t="s">
         <v>61</v>
       </c>
@@ -6566,7 +6566,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" ht="14.25">
+    <row r="84" spans="1:10" ht="14">
       <c r="A84" s="1" t="s">
         <v>61</v>
       </c>
@@ -6574,10 +6574,10 @@
         <v>25</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -6586,7 +6586,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" ht="14.25">
+    <row r="85" spans="1:10" ht="14">
       <c r="A85" s="1" t="s">
         <v>61</v>
       </c>
@@ -6594,10 +6594,10 @@
         <v>25</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -6606,7 +6606,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" ht="14.25">
+    <row r="86" spans="1:10" ht="14">
       <c r="A86" s="1" t="s">
         <v>61</v>
       </c>
@@ -6614,10 +6614,10 @@
         <v>25</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -6626,7 +6626,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" ht="14.25">
+    <row r="87" spans="1:10" ht="14">
       <c r="A87" s="1" t="s">
         <v>61</v>
       </c>
@@ -6644,7 +6644,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" ht="14.25">
+    <row r="88" spans="1:10" ht="14">
       <c r="A88" s="1" t="s">
         <v>61</v>
       </c>
@@ -6662,7 +6662,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" ht="14.25">
+    <row r="89" spans="1:10" ht="14">
       <c r="A89" s="1" t="s">
         <v>61</v>
       </c>
@@ -6680,7 +6680,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" ht="14.25">
+    <row r="90" spans="1:10" ht="14">
       <c r="A90" s="1" t="s">
         <v>61</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" ht="14.25">
+    <row r="91" spans="1:10" ht="14">
       <c r="A91" s="1" t="s">
         <v>61</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>33</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>135</v>
@@ -6718,7 +6718,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" ht="14.25">
+    <row r="92" spans="1:10" ht="14">
       <c r="A92" s="1" t="s">
         <v>61</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>33</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>136</v>
@@ -6738,7 +6738,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" ht="14.25">
+    <row r="93" spans="1:10" ht="14">
       <c r="A93" s="1" t="s">
         <v>61</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>33</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>137</v>
@@ -6758,7 +6758,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" ht="14.25">
+    <row r="94" spans="1:10" ht="14">
       <c r="A94" s="1" t="s">
         <v>61</v>
       </c>
@@ -6776,7 +6776,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" ht="14.25">
+    <row r="95" spans="1:10" ht="14">
       <c r="A95" s="1" t="s">
         <v>61</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" ht="14.25">
+    <row r="96" spans="1:10" ht="14">
       <c r="A96" s="1" t="s">
         <v>61</v>
       </c>
@@ -6812,7 +6812,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" ht="14.25">
+    <row r="97" spans="1:10" ht="14">
       <c r="A97" s="1" t="s">
         <v>61</v>
       </c>
@@ -6829,14 +6829,14 @@
         <v>143</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" ht="14.25">
+    <row r="98" spans="1:10" ht="14">
       <c r="A98" s="1" t="s">
         <v>61</v>
       </c>
@@ -6853,16 +6853,16 @@
         <v>146</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" ht="14.25">
+    <row r="99" spans="1:10" ht="14">
       <c r="A99" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>42</v>
@@ -6877,14 +6877,14 @@
         <v>149</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" ht="14.25">
+    <row r="100" spans="1:10" ht="14">
       <c r="A100" s="1" t="s">
         <v>61</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="14.25">
+    <row r="101" spans="1:10" ht="14">
       <c r="A101" s="1" t="s">
         <v>61</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.25">
+    <row r="102" spans="1:10" ht="14">
       <c r="A102" s="1" t="s">
         <v>61</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="14.25">
+    <row r="103" spans="1:10" ht="14">
       <c r="A103" s="1" t="s">
         <v>61</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="14.25">
+    <row r="104" spans="1:10" ht="14">
       <c r="A104" s="1" t="s">
         <v>66</v>
       </c>
@@ -7014,7 +7014,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" ht="14.25">
+    <row r="105" spans="1:10" ht="14">
       <c r="A105" s="1" t="s">
         <v>66</v>
       </c>
@@ -7032,7 +7032,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" ht="14.25">
+    <row r="106" spans="1:10" ht="14">
       <c r="A106" s="1" t="s">
         <v>66</v>
       </c>
@@ -7050,7 +7050,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" ht="14.25">
+    <row r="107" spans="1:10" ht="14">
       <c r="A107" s="1" t="s">
         <v>66</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" ht="14.25">
+    <row r="108" spans="1:10" ht="14">
       <c r="A108" s="1" t="s">
         <v>66</v>
       </c>
@@ -7086,7 +7086,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" ht="14.25">
+    <row r="109" spans="1:10" ht="14">
       <c r="A109" s="1" t="s">
         <v>66</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>16</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>274</v>
@@ -7106,7 +7106,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" ht="14.25">
+    <row r="110" spans="1:10" ht="14">
       <c r="A110" s="1" t="s">
         <v>66</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>16</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>169</v>
@@ -7126,7 +7126,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" ht="14.25">
+    <row r="111" spans="1:10" ht="14">
       <c r="A111" s="1" t="s">
         <v>66</v>
       </c>
@@ -7144,7 +7144,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" ht="14.25">
+    <row r="112" spans="1:10" ht="14">
       <c r="A112" s="1" t="s">
         <v>66</v>
       </c>
@@ -7162,7 +7162,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" ht="14.25">
+    <row r="113" spans="1:10" ht="14">
       <c r="A113" s="1" t="s">
         <v>66</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" ht="14.25">
+    <row r="114" spans="1:10" ht="14">
       <c r="A114" s="1" t="s">
         <v>66</v>
       </c>
@@ -7198,7 +7198,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" ht="14.25">
+    <row r="115" spans="1:10" ht="14">
       <c r="A115" s="1" t="s">
         <v>66</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" ht="14.25">
+    <row r="116" spans="1:10" ht="14">
       <c r="A116" s="1" t="s">
         <v>66</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>25</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>175</v>
@@ -7236,7 +7236,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" ht="14.25">
+    <row r="117" spans="1:10" ht="14">
       <c r="A117" s="1" t="s">
         <v>66</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>25</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>176</v>
@@ -7256,7 +7256,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" ht="14.25">
+    <row r="118" spans="1:10" ht="14">
       <c r="A118" s="1" t="s">
         <v>66</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>25</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>177</v>
@@ -7276,7 +7276,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" ht="14.25">
+    <row r="119" spans="1:10" ht="14">
       <c r="A119" s="1" t="s">
         <v>66</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" ht="14.25">
+    <row r="120" spans="1:10" ht="14">
       <c r="A120" s="1" t="s">
         <v>66</v>
       </c>
@@ -7312,7 +7312,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" ht="14.25">
+    <row r="121" spans="1:10" ht="14">
       <c r="A121" s="1" t="s">
         <v>66</v>
       </c>
@@ -7330,7 +7330,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" ht="14.25">
+    <row r="122" spans="1:10" ht="14">
       <c r="A122" s="1" t="s">
         <v>66</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" ht="14.25">
+    <row r="123" spans="1:10" ht="14">
       <c r="A123" s="1" t="s">
         <v>66</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>33</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>182</v>
@@ -7368,7 +7368,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" ht="14.25">
+    <row r="124" spans="1:10" ht="14">
       <c r="A124" s="1" t="s">
         <v>66</v>
       </c>
@@ -7388,7 +7388,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" ht="14.25">
+    <row r="125" spans="1:10" ht="14">
       <c r="A125" s="1" t="s">
         <v>66</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>33</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>280</v>
@@ -7408,7 +7408,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" ht="14.25">
+    <row r="126" spans="1:10" ht="14">
       <c r="A126" s="1" t="s">
         <v>66</v>
       </c>
@@ -7426,7 +7426,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" ht="14.25">
+    <row r="127" spans="1:10" ht="14">
       <c r="A127" s="1" t="s">
         <v>66</v>
       </c>
@@ -7444,7 +7444,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" ht="14.25">
+    <row r="128" spans="1:10" ht="14">
       <c r="A128" s="1" t="s">
         <v>66</v>
       </c>
@@ -7462,7 +7462,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" ht="14.25">
+    <row r="129" spans="1:10" ht="14">
       <c r="A129" s="1" t="s">
         <v>66</v>
       </c>
@@ -7479,14 +7479,14 @@
         <v>188</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" ht="14.25">
+    <row r="130" spans="1:10" ht="14">
       <c r="A130" s="1" t="s">
         <v>66</v>
       </c>
@@ -7503,14 +7503,14 @@
         <v>44</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" ht="14.25">
+    <row r="131" spans="1:10" ht="14">
       <c r="A131" s="1" t="s">
         <v>66</v>
       </c>
@@ -7527,14 +7527,14 @@
         <v>192</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" ht="14.25">
+    <row r="132" spans="1:10" ht="14">
       <c r="A132" s="1" t="s">
         <v>66</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="14.25">
+    <row r="133" spans="1:10" ht="14">
       <c r="A133" s="1" t="s">
         <v>66</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="14.25">
+    <row r="134" spans="1:10" ht="14">
       <c r="A134" s="1" t="s">
         <v>66</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="14.25">
+    <row r="135" spans="1:10" ht="14">
       <c r="A135" s="1" t="s">
         <v>66</v>
       </c>
